--- a/REGULAR/OJT/YAYONG, JOSE CLYDE A..xlsx
+++ b/REGULAR/OJT/YAYONG, JOSE CLYDE A..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARIZ-PC\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B943813B-8E02-472B-8C7C-B7D1E443E099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E7C5F2-69EB-4C8C-9AB2-8F588D067BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -30,23 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +230,21 @@
   </si>
   <si>
     <t>5/9-13/2011</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -477,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,9 +599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2638,7 +2639,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K178" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K252" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3004,7 +3005,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3016,87 +3017,87 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K178"/>
+  <dimension ref="A2:K252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4245" activePane="bottomLeft"/>
+      <pane ySplit="4248" topLeftCell="A153" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3104,7 +3105,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3117,24 +3118,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3178,7 +3179,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>114.029</v>
+        <v>174.029</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3188,13 +3189,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>164.958</v>
+        <v>249.958</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3215,7 +3216,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>39083</v>
       </c>
@@ -3235,7 +3236,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>39114</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>39142</v>
       </c>
@@ -3275,7 +3276,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>39173</v>
       </c>
@@ -3295,7 +3296,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>39203</v>
       </c>
@@ -3315,7 +3316,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>39234</v>
       </c>
@@ -3323,19 +3324,19 @@
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="G16" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="42"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>39264</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>39295</v>
       </c>
@@ -3375,7 +3376,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>39326</v>
       </c>
@@ -3395,7 +3396,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>39356</v>
       </c>
@@ -3415,7 +3416,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>39387</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>39417</v>
       </c>
@@ -3459,8 +3460,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="20"/>
@@ -3481,7 +3482,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>39448</v>
       </c>
@@ -3501,7 +3502,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>39479</v>
       </c>
@@ -3521,7 +3522,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>39508</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>39539</v>
       </c>
@@ -3561,7 +3562,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>39569</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>39600</v>
       </c>
@@ -3601,7 +3602,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>39630</v>
       </c>
@@ -3621,7 +3622,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>39661</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>39692</v>
       </c>
@@ -3661,7 +3662,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>39722</v>
       </c>
@@ -3681,7 +3682,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>39753</v>
       </c>
@@ -3701,7 +3702,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>39783</v>
       </c>
@@ -3725,8 +3726,8 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="20"/>
@@ -3747,7 +3748,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>39814</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>39845</v>
       </c>
@@ -3787,7 +3788,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>39873</v>
       </c>
@@ -3807,7 +3808,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>39904</v>
       </c>
@@ -3827,7 +3828,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>39934</v>
       </c>
@@ -3847,7 +3848,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>39965</v>
       </c>
@@ -3867,7 +3868,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>39995</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>40026</v>
       </c>
@@ -3907,7 +3908,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40057</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>40087</v>
       </c>
@@ -3955,7 +3956,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>40118</v>
       </c>
@@ -3979,7 +3980,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>40148</v>
       </c>
@@ -4003,7 +4004,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>54</v>
@@ -4023,8 +4024,8 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="20"/>
@@ -4045,7 +4046,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40179</v>
       </c>
@@ -4069,7 +4070,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40210</v>
       </c>
@@ -4093,7 +4094,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>40238</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>40269</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>40299</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>40330</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>40360</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>40391</v>
       </c>
@@ -4213,7 +4214,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>40422</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>40452</v>
       </c>
@@ -4253,7 +4254,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40483</v>
       </c>
@@ -4273,7 +4274,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>40513</v>
       </c>
@@ -4297,8 +4298,8 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="20"/>
@@ -4319,7 +4320,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>40544</v>
       </c>
@@ -4339,7 +4340,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>40575</v>
       </c>
@@ -4359,7 +4360,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>40603</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>40634</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>54</v>
@@ -4425,7 +4426,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>40664</v>
       </c>
@@ -4445,7 +4446,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>40695</v>
       </c>
@@ -4465,7 +4466,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>40725</v>
       </c>
@@ -4485,7 +4486,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>40756</v>
       </c>
@@ -4505,7 +4506,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>40787</v>
       </c>
@@ -4525,7 +4526,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>40817</v>
       </c>
@@ -4545,7 +4546,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>40848</v>
       </c>
@@ -4565,7 +4566,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>40878</v>
       </c>
@@ -4585,8 +4586,8 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="20"/>
@@ -4607,7 +4608,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>40909</v>
       </c>
@@ -4627,7 +4628,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>40940</v>
       </c>
@@ -4647,7 +4648,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>40969</v>
       </c>
@@ -4667,7 +4668,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>41000</v>
       </c>
@@ -4687,7 +4688,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>41030</v>
       </c>
@@ -4707,7 +4708,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>41061</v>
       </c>
@@ -4727,7 +4728,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>41091</v>
       </c>
@@ -4747,7 +4748,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>41122</v>
       </c>
@@ -4767,7 +4768,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41153</v>
       </c>
@@ -4787,7 +4788,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>41183</v>
       </c>
@@ -4807,7 +4808,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>41214</v>
       </c>
@@ -4827,7 +4828,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41244</v>
       </c>
@@ -4851,8 +4852,8 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B90" s="20"/>
@@ -4873,7 +4874,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>41275</v>
       </c>
@@ -4893,7 +4894,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>41306</v>
       </c>
@@ -4913,7 +4914,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41334</v>
       </c>
@@ -4933,7 +4934,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>41365</v>
       </c>
@@ -4953,7 +4954,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>41395</v>
       </c>
@@ -4973,7 +4974,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41426</v>
       </c>
@@ -4993,7 +4994,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>41456</v>
       </c>
@@ -5013,7 +5014,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>41487</v>
       </c>
@@ -5033,7 +5034,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>41518</v>
       </c>
@@ -5053,7 +5054,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>41548</v>
       </c>
@@ -5073,7 +5074,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>41579</v>
       </c>
@@ -5093,7 +5094,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>41609</v>
       </c>
@@ -5117,8 +5118,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B103" s="20"/>
@@ -5139,7 +5140,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>41640</v>
       </c>
@@ -5159,7 +5160,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41671</v>
       </c>
@@ -5179,7 +5180,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41699</v>
       </c>
@@ -5199,7 +5200,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>41730</v>
       </c>
@@ -5219,7 +5220,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>41760</v>
       </c>
@@ -5239,7 +5240,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>41791</v>
       </c>
@@ -5259,7 +5260,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>41821</v>
       </c>
@@ -5279,7 +5280,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>41852</v>
       </c>
@@ -5299,7 +5300,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>41883</v>
       </c>
@@ -5319,7 +5320,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41913</v>
       </c>
@@ -5339,7 +5340,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>41944</v>
       </c>
@@ -5359,7 +5360,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>41974</v>
       </c>
@@ -5383,8 +5384,8 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="48" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B116" s="20"/>
@@ -5405,7 +5406,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42005</v>
       </c>
@@ -5425,7 +5426,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>42036</v>
       </c>
@@ -5445,7 +5446,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>42064</v>
       </c>
@@ -5465,7 +5466,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>42095</v>
       </c>
@@ -5485,7 +5486,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>42125</v>
       </c>
@@ -5505,7 +5506,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>42156</v>
       </c>
@@ -5525,7 +5526,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>42186</v>
       </c>
@@ -5545,7 +5546,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>42217</v>
       </c>
@@ -5565,7 +5566,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>42248</v>
       </c>
@@ -5585,7 +5586,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>42278</v>
       </c>
@@ -5605,7 +5606,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>42309</v>
       </c>
@@ -5625,7 +5626,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>42339</v>
       </c>
@@ -5649,8 +5650,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="48" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B129" s="20"/>
@@ -5671,7 +5672,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>42370</v>
       </c>
@@ -5691,7 +5692,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42401</v>
       </c>
@@ -5711,7 +5712,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42430</v>
       </c>
@@ -5731,7 +5732,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42461</v>
       </c>
@@ -5751,7 +5752,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42491</v>
       </c>
@@ -5771,7 +5772,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>42522</v>
       </c>
@@ -5791,7 +5792,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42552</v>
       </c>
@@ -5811,7 +5812,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42583</v>
       </c>
@@ -5831,7 +5832,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42614</v>
       </c>
@@ -5851,7 +5852,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42644</v>
       </c>
@@ -5871,7 +5872,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42675</v>
       </c>
@@ -5891,7 +5892,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>42705</v>
       </c>
@@ -5919,8 +5920,8 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="48" t="s">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B142" s="20"/>
@@ -5941,7 +5942,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42736</v>
       </c>
@@ -5961,7 +5962,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>42767</v>
       </c>
@@ -5981,7 +5982,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>42795</v>
       </c>
@@ -6001,7 +6002,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>42826</v>
       </c>
@@ -6021,7 +6022,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42856</v>
       </c>
@@ -6041,7 +6042,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42887</v>
       </c>
@@ -6061,7 +6062,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>42917</v>
       </c>
@@ -6081,7 +6082,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>42948</v>
       </c>
@@ -6101,7 +6102,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>42979</v>
       </c>
@@ -6121,7 +6122,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>43009</v>
       </c>
@@ -6141,7 +6142,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>43040</v>
       </c>
@@ -6161,7 +6162,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>43070</v>
       </c>
@@ -6181,8 +6182,10 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="47" t="s">
+        <v>66</v>
+      </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -6197,200 +6200,254 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="40">
+        <v>43131</v>
+      </c>
       <c r="B156" s="20"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G156" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
+        <v>43159</v>
+      </c>
       <c r="B157" s="20"/>
-      <c r="C157" s="13"/>
+      <c r="C157" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D157" s="39"/>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
-      <c r="G157" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G157" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H157" s="39"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40">
+        <v>43190</v>
+      </c>
       <c r="B158" s="20"/>
-      <c r="C158" s="13"/>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D158" s="39"/>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
-      <c r="G158" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H158" s="39"/>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
+        <v>43220</v>
+      </c>
       <c r="B159" s="20"/>
-      <c r="C159" s="13"/>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D159" s="39"/>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40">
+        <v>43251</v>
+      </c>
       <c r="B160" s="20"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D160" s="39"/>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40">
+        <v>43281</v>
+      </c>
       <c r="B161" s="20"/>
-      <c r="C161" s="13"/>
+      <c r="C161" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D161" s="39"/>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G161" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40">
+        <v>43312</v>
+      </c>
       <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="40">
+        <v>43343</v>
+      </c>
       <c r="B163" s="20"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G163" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40">
+        <v>43373</v>
+      </c>
       <c r="B164" s="20"/>
-      <c r="C164" s="13"/>
+      <c r="C164" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G164" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="40">
+        <v>43404</v>
+      </c>
       <c r="B165" s="20"/>
-      <c r="C165" s="13"/>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="40">
+        <v>43434</v>
+      </c>
       <c r="B166" s="20"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D166" s="39"/>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G166" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="39"/>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="40">
+        <v>43465</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D167" s="39">
+        <v>5</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H167" s="39"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="47" t="s">
+        <v>67</v>
+      </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
       <c r="D168" s="39"/>
@@ -6405,165 +6462,1643 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40">
+        <v>43496</v>
+      </c>
       <c r="B169" s="20"/>
-      <c r="C169" s="13"/>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="39"/>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H169" s="39"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="40">
+        <v>43524</v>
+      </c>
       <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="40">
+        <v>43555</v>
+      </c>
       <c r="B171" s="20"/>
-      <c r="C171" s="13"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D171" s="39"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G171" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="40">
+        <v>43585</v>
+      </c>
       <c r="B172" s="20"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="40">
+        <v>43616</v>
+      </c>
       <c r="B173" s="20"/>
-      <c r="C173" s="13"/>
+      <c r="C173" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D173" s="39"/>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G173" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="40">
+        <v>43646</v>
+      </c>
       <c r="B174" s="20"/>
-      <c r="C174" s="13"/>
+      <c r="C174" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G174" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="40">
+        <v>43677</v>
+      </c>
       <c r="B175" s="20"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="40">
+        <v>43708</v>
+      </c>
       <c r="B176" s="20"/>
-      <c r="C176" s="13"/>
+      <c r="C176" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D176" s="39"/>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G176" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="40">
+        <v>43738</v>
+      </c>
       <c r="B177" s="20"/>
-      <c r="C177" s="13"/>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G177" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="43"/>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="40">
+        <v>43769</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D178" s="39"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="42" t="str">
+      <c r="F178" s="20"/>
+      <c r="G178" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H178" s="39"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="40">
+        <v>43799</v>
+      </c>
+      <c r="B179" s="15"/>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D179" s="42"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H179" s="42"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="15"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="40">
+        <v>43830</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D180" s="39">
+        <v>5</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H180" s="39"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="20"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B181" s="20"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H178" s="43"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="15"/>
+      <c r="H181" s="39"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="20"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="40">
+        <v>43861</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D182" s="39"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H182" s="39"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="40">
+        <v>43890</v>
+      </c>
+      <c r="B183" s="20"/>
+      <c r="C183" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D183" s="39"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H183" s="39"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="40">
+        <v>43921</v>
+      </c>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H184" s="39"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40">
+        <v>43951</v>
+      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="40">
+        <v>43982</v>
+      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D186" s="39"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H186" s="39"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="40">
+        <v>44012</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D187" s="39"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H187" s="39"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="40">
+        <v>44043</v>
+      </c>
+      <c r="B188" s="20"/>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D188" s="39"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H188" s="39"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="40">
+        <v>44074</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D189" s="39"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H189" s="39"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="40">
+        <v>44104</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D190" s="39"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H190" s="39"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="40">
+        <v>44135</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D191" s="39"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H191" s="39"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="40">
+        <v>44165</v>
+      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D192" s="39"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H192" s="39"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="40">
+        <v>44196</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D193" s="39">
+        <v>5</v>
+      </c>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H193" s="39"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="39"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="40">
+        <v>44227</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D195" s="39"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H195" s="39"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="40">
+        <v>44255</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H196" s="39"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="40">
+        <v>44286</v>
+      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D197" s="39"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H197" s="39"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="40">
+        <v>44316</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D198" s="39"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H198" s="39"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="40">
+        <v>44347</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D199" s="39"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H199" s="39"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="40">
+        <v>44377</v>
+      </c>
+      <c r="B200" s="20"/>
+      <c r="C200" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D200" s="39"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H200" s="39"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="40">
+        <v>44408</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D201" s="39"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H201" s="39"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="20"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="40">
+        <v>44439</v>
+      </c>
+      <c r="B202" s="20"/>
+      <c r="C202" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H202" s="39"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="20"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="40">
+        <v>44469</v>
+      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D203" s="39"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H203" s="39"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="20"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="40">
+        <v>44500</v>
+      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D204" s="39"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H204" s="39"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="20"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="40">
+        <v>44530</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D205" s="39"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H205" s="39"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="20"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="40">
+        <v>44561</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C206" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D206" s="39">
+        <v>5</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H206" s="39"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="20"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="40">
+        <v>44592</v>
+      </c>
+      <c r="B207" s="20"/>
+      <c r="C207" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D207" s="39"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H207" s="39"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="20"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="40">
+        <v>44620</v>
+      </c>
+      <c r="B208" s="20"/>
+      <c r="C208" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D208" s="39"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H208" s="39"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="20"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="40">
+        <v>44651</v>
+      </c>
+      <c r="B209" s="20"/>
+      <c r="C209" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D209" s="39"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H209" s="39"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="20"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="40">
+        <v>44681</v>
+      </c>
+      <c r="B210" s="20"/>
+      <c r="C210" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D210" s="39"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H210" s="39"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="20"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="40">
+        <v>44712</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D211" s="39"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H211" s="39"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="20"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="40">
+        <v>44742</v>
+      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D212" s="39"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H212" s="39"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="20"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="40">
+        <v>44773</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D213" s="39"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H213" s="39"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="20"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="40">
+        <v>44804</v>
+      </c>
+      <c r="B214" s="20"/>
+      <c r="C214" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D214" s="39"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H214" s="39"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="20"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="40">
+        <v>44834</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D215" s="39"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H215" s="39"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="40">
+        <v>44865</v>
+      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D216" s="39"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H216" s="39"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="20"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="40">
+        <v>44895</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D217" s="39"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H217" s="39"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="20"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B218" s="20"/>
+      <c r="C218" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D218" s="39">
+        <v>5</v>
+      </c>
+      <c r="E218" s="9"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H218" s="39"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="40">
+        <v>44957</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D219" s="39"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H219" s="39"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="40">
+        <v>44985</v>
+      </c>
+      <c r="B220" s="20"/>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D220" s="39"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H220" s="39"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="20"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="40">
+        <v>45016</v>
+      </c>
+      <c r="B221" s="20"/>
+      <c r="C221" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D221" s="39"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H221" s="39"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="20"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="40">
+        <v>45046</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D222" s="39"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H222" s="39"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="20"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="40">
+        <v>45077</v>
+      </c>
+      <c r="B223" s="20"/>
+      <c r="C223" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D223" s="39"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H223" s="39"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="20"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="40">
+        <v>45107</v>
+      </c>
+      <c r="B224" s="20"/>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D224" s="39"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H224" s="39"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="20"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D225" s="39"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H225" s="39"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="20"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D226" s="39"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H226" s="39"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="20"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="40">
+        <v>45199</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="39"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H227" s="39"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="39"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H228" s="39"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="20"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="39"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H229" s="39"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="20"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="39"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H230" s="39"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="20"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="39"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H231" s="39"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="20"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="39"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H232" s="39"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="20"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="39"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H233" s="39"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="20"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B234" s="20"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H234" s="39"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="20"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B235" s="20"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H235" s="39"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B236" s="20"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H236" s="39"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="20"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B237" s="20"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="20"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B238" s="20"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="20"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B239" s="20"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H239" s="39"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="20"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B240" s="20"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="39"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="20"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B241" s="20"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B242" s="20"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="39"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="20"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B243" s="20"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="39"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="20"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="40">
+        <v>45716</v>
+      </c>
+      <c r="B244" s="20"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H244" s="39"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="20"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="40">
+        <v>45747</v>
+      </c>
+      <c r="B245" s="20"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H245" s="39"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="20"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40">
+        <v>45777</v>
+      </c>
+      <c r="B246" s="20"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H246" s="39"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="20"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="40">
+        <v>45808</v>
+      </c>
+      <c r="B247" s="20"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H247" s="39"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="20"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="40">
+        <v>45838</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H248" s="39"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="20"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="40">
+        <v>45869</v>
+      </c>
+      <c r="B249" s="20"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H249" s="39"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="40">
+        <v>45900</v>
+      </c>
+      <c r="B250" s="20"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40">
+        <v>45930</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="40">
+        <v>45961</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6611,37 +8146,37 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6657,7 +8192,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -6666,11 +8201,11 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -6680,7 +8215,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0.25</v>
       </c>
@@ -6691,22 +8226,25 @@
         <f>J4-1</f>
         <v>1</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6719,15 +8257,19 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>423.98699999999997</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6740,7 +8282,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -6754,7 +8296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6780,7 +8322,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6806,7 +8348,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6832,7 +8374,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6858,7 +8400,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6884,7 +8426,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6910,7 +8452,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6936,7 +8478,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6956,7 +8498,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6976,7 +8518,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6996,7 +8538,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7017,7 +8559,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7038,7 +8580,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7059,7 +8601,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7080,7 +8622,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7101,7 +8643,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7122,7 +8664,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7143,7 +8685,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7164,7 +8706,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7185,7 +8727,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7206,7 +8748,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7227,7 +8769,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7248,7 +8790,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7269,7 +8811,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7290,7 +8832,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7311,7 +8853,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7332,7 +8874,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7353,7 +8895,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7374,7 +8916,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7395,7 +8937,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7416,7 +8958,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7425,7 +8967,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7434,7 +8976,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7443,7 +8985,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7452,7 +8994,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7461,7 +9003,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7470,7 +9012,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7479,7 +9021,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7488,7 +9030,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7497,7 +9039,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7506,7 +9048,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7515,7 +9057,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7524,7 +9066,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7533,7 +9075,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7542,7 +9084,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7551,7 +9093,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7560,7 +9102,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7569,7 +9111,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7578,7 +9120,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7587,7 +9129,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7596,7 +9138,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7605,7 +9147,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7614,7 +9156,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7623,7 +9165,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7632,7 +9174,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7641,7 +9183,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7650,7 +9192,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7659,7 +9201,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7668,7 +9210,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7677,7 +9219,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
